--- a/April'21/30.04.2021/Daily Sales Info....xlsx
+++ b/April'21/30.04.2021/Daily Sales Info....xlsx
@@ -1094,6 +1094,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1161,9 +1164,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13602,80 +13602,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <v>574173</v>
@@ -13705,19 +13705,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>212469</v>
@@ -13733,13 +13733,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -14896,11 +14896,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>168170</v>
@@ -14971,11 +14971,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>618472</v>
@@ -15012,14 +15012,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -15269,83 +15269,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
       <c r="U2">
         <v>1553928633</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
@@ -15384,19 +15384,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -15410,13 +15410,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -16581,11 +16581,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>328642</v>
@@ -16656,11 +16656,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>521729</v>
@@ -16697,14 +16697,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -16958,80 +16958,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
@@ -17070,19 +17070,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -17100,13 +17100,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -18269,11 +18269,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>199350</v>
@@ -18344,11 +18344,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>634067</v>
@@ -18385,14 +18385,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -18646,82 +18646,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
@@ -18760,21 +18760,21 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="108"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>113247</v>
@@ -18788,15 +18788,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -20102,11 +20102,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>289598</v>
@@ -20185,11 +20185,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>457716</v>
@@ -20226,16 +20226,16 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -20513,83 +20513,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
       <c r="V2">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
@@ -20628,21 +20628,21 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="108"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>415585</v>
@@ -20656,15 +20656,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -22043,11 +22043,11 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>386742</v>
@@ -22130,11 +22130,11 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>486559</v>
@@ -22171,16 +22171,16 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -22438,80 +22438,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
@@ -22550,19 +22550,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -22574,13 +22574,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -23611,11 +23611,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -23686,11 +23686,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>486559</v>
@@ -23727,14 +23727,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -23988,80 +23988,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
@@ -24100,19 +24100,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -24124,13 +24124,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -25161,11 +25161,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -25236,11 +25236,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>486559</v>
@@ -25277,14 +25277,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -25538,80 +25538,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
@@ -25650,19 +25650,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -25674,13 +25674,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -26711,11 +26711,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -26786,11 +26786,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>486559</v>
@@ -26827,14 +26827,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -27088,80 +27088,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
@@ -27200,19 +27200,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -27224,13 +27224,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -28357,11 +28357,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>288540</v>
@@ -28432,11 +28432,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>198019</v>
@@ -28473,14 +28473,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -28734,80 +28734,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
@@ -28846,19 +28846,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>539480</v>
@@ -28872,13 +28872,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -29989,11 +29989,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>151939</v>
@@ -30064,11 +30064,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>585560</v>
@@ -30105,14 +30105,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -30366,80 +30366,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
@@ -30478,19 +30478,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -30502,13 +30502,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -31619,11 +31619,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>167743</v>
@@ -31694,11 +31694,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>417817</v>
@@ -31735,14 +31735,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -31996,80 +31996,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D29</f>
@@ -32108,19 +32108,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -32132,13 +32132,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -33169,11 +33169,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -33244,11 +33244,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>618472</v>
@@ -33285,14 +33285,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -33546,80 +33546,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
@@ -33658,21 +33658,21 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="108"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311689</v>
@@ -33688,15 +33688,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -34980,11 +34980,11 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>368289</v>
@@ -35063,11 +35063,11 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>361217</v>
@@ -35104,16 +35104,16 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -35388,80 +35388,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
@@ -35500,19 +35500,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>415584</v>
@@ -35526,13 +35526,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -36668,11 +36668,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>174025</v>
@@ -36743,11 +36743,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>602776</v>
@@ -36784,14 +36784,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -37045,80 +37045,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
@@ -37157,19 +37157,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -37181,13 +37181,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -38346,11 +38346,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>209906</v>
@@ -38421,11 +38421,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>392870</v>
@@ -38462,14 +38462,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -38723,80 +38723,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
@@ -38835,19 +38835,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -38859,13 +38859,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -39896,11 +39896,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -39971,11 +39971,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>392870</v>
@@ -40012,14 +40012,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -40273,80 +40273,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
@@ -40385,19 +40385,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -40411,13 +40411,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -41579,11 +41579,11 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>204281</v>
@@ -41654,11 +41654,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>500277</v>
@@ -41695,14 +41695,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -41960,80 +41960,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
@@ -42072,19 +42072,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>415584</v>
@@ -42098,13 +42098,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -43287,11 +43287,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>223489</v>
@@ -43362,11 +43362,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>692372</v>
@@ -43403,14 +43403,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -43647,8 +43647,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43664,80 +43664,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
@@ -43776,19 +43776,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -43800,13 +43800,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -44971,11 +44971,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>183014</v>
@@ -45046,11 +45046,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>509358</v>
@@ -45087,14 +45087,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -45331,8 +45331,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45348,80 +45348,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
@@ -45460,19 +45460,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>519480</v>
@@ -45486,13 +45486,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -46661,11 +46661,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>196024</v>
@@ -46736,11 +46736,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>832814</v>
@@ -46777,14 +46777,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -47022,7 +47022,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47040,80 +47040,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
@@ -47152,21 +47152,21 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="108"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -47180,15 +47180,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -48462,11 +48462,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>433395</v>
@@ -48545,11 +48545,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>711107</v>
@@ -48586,16 +48586,16 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -48853,8 +48853,8 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48871,80 +48871,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
@@ -48983,21 +48983,21 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="108"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>818487</v>
@@ -49011,15 +49011,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -50315,11 +50315,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>624943</v>
@@ -50398,11 +50398,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>904651</v>
@@ -50439,16 +50439,16 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -50728,80 +50728,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'2'!D29</f>
@@ -50840,19 +50840,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -50864,13 +50864,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -52067,11 +52067,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>209759</v>
@@ -52142,11 +52142,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>408713</v>
@@ -52183,14 +52183,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -52426,9 +52426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U7" sqref="U7:U26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52444,80 +52444,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
@@ -52556,19 +52556,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -52580,13 +52580,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -52914,9 +52914,11 @@
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="20">
-        <v>478</v>
-      </c>
-      <c r="J12" s="20"/>
+        <v>243</v>
+      </c>
+      <c r="J12" s="20">
+        <v>235</v>
+      </c>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20">
@@ -53303,10 +53305,10 @@
       <c r="D20" s="29">
         <v>4130</v>
       </c>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
       <c r="I20" s="76"/>
       <c r="J20" s="76"/>
       <c r="K20" s="76"/>
@@ -53682,11 +53684,11 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>150982</v>
@@ -53709,11 +53711,11 @@
       </c>
       <c r="I28" s="45">
         <f t="shared" si="6"/>
-        <v>478</v>
+        <v>243</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="K28" s="45">
         <f t="shared" si="6"/>
@@ -53757,11 +53759,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>753669</v>
@@ -53784,11 +53786,11 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>725</v>
+        <v>960</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
-        <v>586</v>
+        <v>351</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
@@ -53798,14 +53800,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -54059,80 +54061,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
@@ -54156,11 +54158,11 @@
       </c>
       <c r="I4" s="2">
         <f>'30'!I29</f>
-        <v>725</v>
+        <v>960</v>
       </c>
       <c r="J4" s="2">
         <f>'30'!J29</f>
-        <v>586</v>
+        <v>351</v>
       </c>
       <c r="K4" s="2">
         <f>'30'!K29</f>
@@ -54171,19 +54173,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -54195,13 +54197,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -55232,11 +55234,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -55307,11 +55309,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>753669</v>
@@ -55334,11 +55336,11 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>725</v>
+        <v>960</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
-        <v>586</v>
+        <v>351</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
@@ -55348,14 +55350,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -55609,80 +55611,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D4</f>
@@ -55721,19 +55723,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>'1'!D5+'2'!D5+'3'!D5+'4'!D5+'5'!D5+'6'!D5+'7'!D5+'8'!D5+'9'!D5+'10'!D5+'11'!D5+'12'!D5+'13'!D5+'14'!D5+'15'!D5+'16'!D5+'17'!D5+'18'!D5+'19'!D5+'20'!D5+'21'!D5+'22'!D5+'23'!D5+'24'!D5+'25'!D5+'26'!D5+'27'!D5+'28'!D5+'29'!D5+'30'!D5+'31'!D5</f>
@@ -55772,13 +55774,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -56254,11 +56256,11 @@
       </c>
       <c r="I12" s="21">
         <f>'1'!I12+'2'!I12+'3'!I12+'4'!I12+'5'!I12+'6'!I12+'7'!I12+'8'!I12+'9'!I12+'10'!I12+'11'!I12+'12'!I12+'13'!I12+'14'!I12+'15'!I12+'16'!I12+'17'!I12+'18'!I12+'19'!I12+'20'!I12+'21'!I12+'22'!I12+'23'!I12+'24'!I12+'25'!I12+'26'!I12+'27'!I12+'28'!I12+'29'!I12+'30'!I12+'31'!I12</f>
-        <v>478</v>
+        <v>243</v>
       </c>
       <c r="J12" s="21">
         <f>'1'!J12+'2'!J12+'3'!J12+'4'!J12+'5'!J12+'6'!J12+'7'!J12+'8'!J12+'9'!J12+'10'!J12+'11'!J12+'12'!J12+'13'!J12+'14'!J12+'15'!J12+'16'!J12+'17'!J12+'18'!J12+'19'!J12+'20'!J12+'21'!J12+'22'!J12+'23'!J12+'24'!J12+'25'!J12+'26'!J12+'27'!J12+'28'!J12+'29'!J12+'30'!J12+'31'!J12</f>
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="K12" s="21">
         <f>'1'!K12+'2'!K12+'3'!K12+'4'!K12+'5'!K12+'6'!K12+'7'!K12+'8'!K12+'9'!K12+'10'!K12+'11'!K12+'12'!K12+'13'!K12+'14'!K12+'15'!K12+'16'!K12+'17'!K12+'18'!K12+'19'!K12+'20'!K12+'21'!K12+'22'!K12+'23'!K12+'24'!K12+'25'!K12+'26'!K12+'27'!K12+'28'!K12+'29'!K12+'30'!K12+'31'!K12</f>
@@ -57439,11 +57441,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>6098406</v>
@@ -57466,11 +57468,11 @@
       </c>
       <c r="I28" s="45">
         <f t="shared" si="6"/>
-        <v>1690</v>
+        <v>1455</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="6"/>
-        <v>68</v>
+        <v>303</v>
       </c>
       <c r="K28" s="45">
         <f t="shared" si="6"/>
@@ -57514,11 +57516,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>753669</v>
@@ -57541,11 +57543,11 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
-        <v>725</v>
+        <v>960</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
-        <v>586</v>
+        <v>351</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
@@ -57555,14 +57557,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -57812,80 +57814,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'3'!D29</f>
@@ -57924,21 +57926,21 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="108"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -57954,15 +57956,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -59284,11 +59286,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>306119</v>
@@ -59367,11 +59369,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>414282</v>
@@ -59409,15 +59411,15 @@
         <v>5</v>
       </c>
       <c r="M29" s="58"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="110"/>
-      <c r="S29" s="110"/>
-      <c r="T29" s="110"/>
-      <c r="U29" s="110"/>
-      <c r="V29" s="111"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="112"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -59691,80 +59693,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'4'!D29</f>
@@ -59806,21 +59808,21 @@
         <f>'4'!M29</f>
         <v>0</v>
       </c>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="108"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -59834,15 +59836,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -61118,11 +61120,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>180650</v>
@@ -61201,11 +61203,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>545320</v>
@@ -61242,16 +61244,16 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -61525,80 +61527,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'5'!D29</f>
@@ -61637,19 +61639,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>126689</v>
@@ -61663,13 +61665,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -62830,11 +62832,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>166706</v>
@@ -62905,11 +62907,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>505303</v>
@@ -62946,14 +62948,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -63207,80 +63209,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'6'!D29</f>
@@ -63319,19 +63321,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>207792</v>
@@ -63345,13 +63347,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -64498,11 +64500,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>198297</v>
@@ -64573,11 +64575,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>514798</v>
@@ -64614,14 +64616,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -64875,80 +64877,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
@@ -64987,19 +64989,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -65013,13 +65015,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -66178,11 +66180,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>287803</v>
@@ -66253,11 +66255,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>538683</v>
@@ -66294,14 +66296,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -66555,80 +66557,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
@@ -66667,19 +66669,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -66691,13 +66693,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -67728,11 +67730,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -67803,11 +67805,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>538683</v>
@@ -67844,14 +67846,14 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>

--- a/April'21/30.04.2021/Daily Sales Info....xlsx
+++ b/April'21/30.04.2021/Daily Sales Info....xlsx
@@ -48854,7 +48854,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52427,8 +52427,8 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
